--- a/textToOps/data/raw/DataCorpus_classfied_중분류.xlsx
+++ b/textToOps/data/raw/DataCorpus_classfied_중분류.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0324F-399A-1941-931C-F12A36A6F32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4532CC94-C26D-7F4F-B6DB-AD70A0C1BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="915">
   <si>
     <t>Question</t>
   </si>
@@ -2802,12 +2802,21 @@
   <si>
     <t>What is the center coordinate of library patrons standard distance circle for each district in Oleander</t>
   </si>
+  <si>
+    <t>buidling=abndoned</t>
+  </si>
+  <si>
+    <t>water=*</t>
+  </si>
+  <si>
+    <t>agriculture=*, landuse=argiculture</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2950,7 +2959,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2962,8 +2971,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3650,12 +3657,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="108" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="108" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J270" sqref="J270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="89.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -3670,7 +3677,7 @@
     <col min="22" max="22" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3745,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>381</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>378</v>
       </c>
@@ -3771,15 +3778,36 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="16">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F5" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G5" t="s">
+        <v>702</v>
+      </c>
+      <c r="H5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I5" t="s">
+        <v>745</v>
+      </c>
+      <c r="J5" t="s">
+        <v>603</v>
+      </c>
+      <c r="K5" t="s">
+        <v>714</v>
+      </c>
+      <c r="L5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3790,7 +3818,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3807,7 +3835,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="16">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -3817,7 +3845,7 @@
       <c r="E8" t="s">
         <v>726</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G8" t="s">
@@ -3835,8 +3863,11 @@
       <c r="K8" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -3847,7 +3878,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -3855,7 +3886,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -3863,7 +3894,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -3871,7 +3902,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="16">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -3881,14 +3912,14 @@
       <c r="E13" t="s">
         <v>671</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3899,7 +3930,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="16">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -3909,7 +3940,7 @@
       <c r="E15" t="s">
         <v>729</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G15" t="s">
@@ -3922,14 +3953,14 @@
         <v>603</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="16">
       <c r="A16" t="s">
         <v>327</v>
       </c>
       <c r="B16" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G16" t="s">
@@ -3947,8 +3978,11 @@
       <c r="K16" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16">
       <c r="A17" t="s">
         <v>407</v>
       </c>
@@ -3958,14 +3992,14 @@
       <c r="D17" t="s">
         <v>547</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G17" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -3976,7 +4010,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -3990,7 +4024,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>317</v>
       </c>
@@ -3998,7 +4032,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>318</v>
       </c>
@@ -4009,7 +4043,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="16">
       <c r="A22" t="s">
         <v>311</v>
       </c>
@@ -4019,7 +4053,7 @@
       <c r="E22" t="s">
         <v>746</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G22" t="s">
@@ -4032,14 +4066,14 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="16">
       <c r="A23" t="s">
         <v>312</v>
       </c>
       <c r="B23" t="s">
         <v>492</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G23" t="s">
@@ -4061,37 +4095,43 @@
         <v>603</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="16">
       <c r="A24" t="s">
         <v>418</v>
       </c>
       <c r="B24" t="s">
         <v>520</v>
       </c>
+      <c r="F24" s="12" t="s">
+        <v>727</v>
+      </c>
       <c r="G24" t="s">
+        <v>702</v>
+      </c>
+      <c r="H24" t="s">
+        <v>605</v>
+      </c>
+      <c r="I24" t="s">
         <v>745</v>
       </c>
-      <c r="H24" t="s">
-        <v>603</v>
-      </c>
-      <c r="I24" t="s">
-        <v>757</v>
-      </c>
       <c r="J24" t="s">
-        <v>745</v>
+        <v>603</v>
       </c>
       <c r="K24" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+      <c r="L24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16">
       <c r="A25" t="s">
         <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>445</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G25" t="s">
@@ -4104,7 +4144,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>351</v>
       </c>
@@ -4115,7 +4155,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="16">
       <c r="A27" t="s">
         <v>325</v>
       </c>
@@ -4125,7 +4165,7 @@
       <c r="E27" t="s">
         <v>769</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G27" t="s">
@@ -4144,14 +4184,14 @@
         <v>603</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="16">
       <c r="A28" t="s">
         <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>460</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G28" t="s">
@@ -4161,7 +4201,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -4172,7 +4212,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -4186,7 +4226,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -4197,7 +4237,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -4208,7 +4248,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>319</v>
       </c>
@@ -4219,7 +4259,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>320</v>
       </c>
@@ -4230,7 +4270,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="16">
       <c r="A35" t="s">
         <v>322</v>
       </c>
@@ -4240,7 +4280,7 @@
       <c r="E35" t="s">
         <v>686</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G35" t="s">
@@ -4253,7 +4293,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="16">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -4263,7 +4303,7 @@
       <c r="E36" t="s">
         <v>581</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G36" t="s">
@@ -4279,14 +4319,14 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="16">
       <c r="A37" t="s">
         <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>465</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G37" t="s">
@@ -4296,7 +4336,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="16">
       <c r="A38" t="s">
         <v>166</v>
       </c>
@@ -4309,7 +4349,7 @@
       <c r="E38" t="s">
         <v>747</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G38" t="s">
@@ -4322,14 +4362,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="16">
       <c r="A39" t="s">
         <v>303</v>
       </c>
       <c r="B39" t="s">
         <v>447</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G39" t="s">
@@ -4345,7 +4385,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4359,7 +4399,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="16">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -4369,7 +4409,7 @@
       <c r="E41" t="s">
         <v>691</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G41" t="s">
@@ -4382,7 +4422,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="16">
       <c r="A42" t="s">
         <v>337</v>
       </c>
@@ -4392,7 +4432,7 @@
       <c r="E42" t="s">
         <v>770</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G42" t="s">
@@ -4405,7 +4445,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="16">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4415,7 +4455,7 @@
       <c r="E43" t="s">
         <v>676</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G43" t="s">
@@ -4437,14 +4477,14 @@
         <v>695</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="16">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>446</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G44" t="s">
@@ -4457,14 +4497,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="16">
       <c r="A45" t="s">
         <v>295</v>
       </c>
       <c r="B45" t="s">
         <v>480</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G45" t="s">
@@ -4474,14 +4514,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="16">
       <c r="A46" t="s">
         <v>899</v>
       </c>
       <c r="B46" t="s">
         <v>480</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G46" t="s">
@@ -4491,14 +4531,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="16">
       <c r="A47" t="s">
         <v>901</v>
       </c>
       <c r="B47" t="s">
         <v>480</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G47" t="s">
@@ -4508,14 +4548,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="16">
       <c r="A48" t="s">
         <v>898</v>
       </c>
       <c r="B48" t="s">
         <v>480</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G48" t="s">
@@ -4525,14 +4565,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="16">
       <c r="A49" t="s">
         <v>900</v>
       </c>
       <c r="B49" t="s">
         <v>480</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G49" t="s">
@@ -4542,14 +4582,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="16">
       <c r="A50" t="s">
         <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>480</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G50" t="s">
@@ -4559,7 +4599,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>294</v>
       </c>
@@ -4570,7 +4610,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="16">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -4580,14 +4620,14 @@
       <c r="E52" t="s">
         <v>636</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G52" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="16">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -4597,14 +4637,14 @@
       <c r="E53" t="s">
         <v>672</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G53" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="16">
       <c r="A54" t="s">
         <v>292</v>
       </c>
@@ -4614,7 +4654,7 @@
       <c r="E54" t="s">
         <v>675</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G54" t="s">
@@ -4627,7 +4667,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="16">
       <c r="A55" t="s">
         <v>293</v>
       </c>
@@ -4637,7 +4677,7 @@
       <c r="E55" t="s">
         <v>637</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G55" t="s">
@@ -4650,7 +4690,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>288</v>
       </c>
@@ -4661,7 +4701,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>287</v>
       </c>
@@ -4672,7 +4712,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="16">
       <c r="A58" t="s">
         <v>286</v>
       </c>
@@ -4682,7 +4722,7 @@
       <c r="E58" t="s">
         <v>749</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G58" t="s">
@@ -4695,7 +4735,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>417</v>
       </c>
@@ -4712,7 +4752,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="16">
       <c r="A60" t="s">
         <v>402</v>
       </c>
@@ -4722,21 +4762,21 @@
       <c r="E60" t="s">
         <v>690</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="F60" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="I60" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:21" ht="16">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -4746,21 +4786,21 @@
       <c r="E61" t="s">
         <v>692</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="F61" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I61" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -4773,20 +4813,20 @@
       <c r="G62" t="s">
         <v>745</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I62" s="9" t="s">
+      <c r="H62" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="J62" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="16">
       <c r="A63" t="s">
         <v>260</v>
       </c>
@@ -4796,7 +4836,7 @@
       <c r="E63" t="s">
         <v>691</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G63" t="s">
@@ -4809,7 +4849,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="16">
       <c r="A64" t="s">
         <v>388</v>
       </c>
@@ -4822,7 +4862,7 @@
       <c r="E64" t="s">
         <v>689</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G64" t="s">
@@ -4835,7 +4875,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" ht="16">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -4845,7 +4885,7 @@
       <c r="E65" t="s">
         <v>676</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G65" t="s">
@@ -4858,7 +4898,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" ht="16">
       <c r="A66" t="s">
         <v>291</v>
       </c>
@@ -4868,7 +4908,7 @@
       <c r="E66" t="s">
         <v>690</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G66" t="s">
@@ -4881,7 +4921,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" ht="16">
       <c r="A67" t="s">
         <v>290</v>
       </c>
@@ -4891,7 +4931,7 @@
       <c r="E67" t="s">
         <v>689</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G67" t="s">
@@ -4904,7 +4944,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>365</v>
       </c>
@@ -4915,7 +4955,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>340</v>
       </c>
@@ -4926,7 +4966,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" ht="16">
       <c r="A70" t="s">
         <v>435</v>
       </c>
@@ -4936,22 +4976,22 @@
       <c r="E70" t="s">
         <v>583</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H70" s="9" t="s">
+      <c r="F70" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I70" t="s">
         <v>714</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:21" ht="16">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -4964,7 +5004,7 @@
       <c r="E71" t="s">
         <v>675</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G71" t="s">
@@ -4998,7 +5038,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" ht="16">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -5008,13 +5048,13 @@
       <c r="E72" t="s">
         <v>667</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H72" s="9" t="s">
+      <c r="F72" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I72" t="s">
@@ -5024,7 +5064,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" ht="16">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -5034,13 +5074,13 @@
       <c r="E73" t="s">
         <v>675</v>
       </c>
-      <c r="F73" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H73" s="9" t="s">
+      <c r="F73" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I73" t="s">
@@ -5050,7 +5090,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" ht="16">
       <c r="A74" t="s">
         <v>387</v>
       </c>
@@ -5063,13 +5103,13 @@
       <c r="E74" t="s">
         <v>676</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H74" s="9" t="s">
+      <c r="F74" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I74" t="s">
@@ -5079,7 +5119,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" ht="16">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -5089,20 +5129,20 @@
       <c r="E75" t="s">
         <v>679</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H75" s="9" t="s">
+      <c r="F75" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I75" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" ht="16">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -5112,13 +5152,13 @@
       <c r="E76" t="s">
         <v>627</v>
       </c>
-      <c r="F76" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H76" s="9" t="s">
+      <c r="F76" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I76" t="s">
@@ -5128,7 +5168,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" ht="16">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -5138,20 +5178,20 @@
       <c r="E77" t="s">
         <v>637</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H77" s="9" t="s">
+      <c r="F77" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I77" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" ht="16">
       <c r="A78" t="s">
         <v>396</v>
       </c>
@@ -5164,7 +5204,7 @@
       <c r="E78" t="s">
         <v>681</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G78" t="s">
@@ -5183,7 +5223,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" ht="16">
       <c r="A79" t="s">
         <v>226</v>
       </c>
@@ -5193,7 +5233,7 @@
       <c r="E79" t="s">
         <v>697</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G79" t="s">
@@ -5212,7 +5252,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" ht="16">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -5222,30 +5262,30 @@
       <c r="E80" t="s">
         <v>696</v>
       </c>
-      <c r="F80" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H80" s="9" t="s">
+      <c r="F80" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>604</v>
       </c>
       <c r="I80" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" ht="16">
       <c r="A81" t="s">
         <v>904</v>
       </c>
       <c r="B81" t="s">
         <v>445</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G81" s="9" t="s">
+      <c r="F81" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>603</v>
       </c>
       <c r="H81" t="s">
@@ -5270,17 +5310,17 @@
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" ht="16">
       <c r="A82" t="s">
         <v>903</v>
       </c>
       <c r="B82" t="s">
         <v>445</v>
       </c>
-      <c r="F82" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="F82" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>603</v>
       </c>
       <c r="H82" t="s">
@@ -5305,17 +5345,17 @@
         <v>585</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" ht="16">
       <c r="A83" t="s">
         <v>902</v>
       </c>
       <c r="B83" t="s">
         <v>445</v>
       </c>
-      <c r="F83" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G83" s="9" t="s">
+      <c r="F83" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>603</v>
       </c>
       <c r="H83" t="s">
@@ -5340,17 +5380,17 @@
         <v>585</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" ht="16">
       <c r="A84" t="s">
         <v>905</v>
       </c>
       <c r="B84" t="s">
         <v>445</v>
       </c>
-      <c r="F84" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G84" s="9" t="s">
+      <c r="F84" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>603</v>
       </c>
       <c r="H84" t="s">
@@ -5375,17 +5415,17 @@
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" ht="16">
       <c r="A85" t="s">
         <v>751</v>
       </c>
       <c r="B85" t="s">
         <v>445</v>
       </c>
-      <c r="F85" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G85" s="9" t="s">
+      <c r="F85" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>603</v>
       </c>
       <c r="H85" t="s">
@@ -5410,7 +5450,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
         <v>313</v>
       </c>
@@ -5424,7 +5464,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" ht="16">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -5434,7 +5474,7 @@
       <c r="E87" t="s">
         <v>625</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G87" t="s">
@@ -5447,7 +5487,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" ht="16">
       <c r="A88" t="s">
         <v>297</v>
       </c>
@@ -5457,7 +5497,7 @@
       <c r="E88" t="s">
         <v>624</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G88" t="s">
@@ -5470,7 +5510,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" ht="16">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -5480,7 +5520,7 @@
       <c r="E89" t="s">
         <v>626</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G89" t="s">
@@ -5493,7 +5533,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" ht="16">
       <c r="A90" t="s">
         <v>328</v>
       </c>
@@ -5503,7 +5543,7 @@
       <c r="E90" t="s">
         <v>600</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G90" t="s">
@@ -5534,7 +5574,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" ht="16">
       <c r="A91" t="s">
         <v>363</v>
       </c>
@@ -5544,7 +5584,7 @@
       <c r="E91" t="s">
         <v>754</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G91" t="s">
@@ -5563,7 +5603,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" ht="16">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5573,7 +5613,7 @@
       <c r="E92" t="s">
         <v>627</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G92" t="s">
@@ -5586,7 +5626,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" ht="16">
       <c r="A93" t="s">
         <v>344</v>
       </c>
@@ -5596,7 +5636,7 @@
       <c r="E93" t="s">
         <v>628</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G93" t="s">
@@ -5609,7 +5649,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" ht="16">
       <c r="A94" t="s">
         <v>343</v>
       </c>
@@ -5619,7 +5659,7 @@
       <c r="E94" t="s">
         <v>629</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G94" t="s">
@@ -5635,7 +5675,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
         <v>342</v>
       </c>
@@ -5664,7 +5704,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" ht="16">
       <c r="A96" t="s">
         <v>345</v>
       </c>
@@ -5674,7 +5714,7 @@
       <c r="E96" t="s">
         <v>632</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F96" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G96" t="s">
@@ -5687,14 +5727,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" ht="16">
       <c r="A97" t="s">
         <v>908</v>
       </c>
       <c r="B97" t="s">
         <v>499</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G97" t="s">
@@ -5710,14 +5750,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" ht="16">
       <c r="A98" t="s">
         <v>346</v>
       </c>
       <c r="B98" t="s">
         <v>499</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G98" t="s">
@@ -5733,7 +5773,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -5744,7 +5784,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" ht="16">
       <c r="A100" t="s">
         <v>416</v>
       </c>
@@ -5757,7 +5797,7 @@
       <c r="E100" t="s">
         <v>627</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G100" t="s">
@@ -5770,7 +5810,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" ht="16">
       <c r="A101" t="s">
         <v>907</v>
       </c>
@@ -5780,7 +5820,7 @@
       <c r="C101" t="s">
         <v>544</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F101" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G101" t="s">
@@ -5799,7 +5839,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" ht="16">
       <c r="A102" t="s">
         <v>906</v>
       </c>
@@ -5809,7 +5849,7 @@
       <c r="C102" t="s">
         <v>544</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G102" t="s">
@@ -5828,7 +5868,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" ht="16">
       <c r="A103" t="s">
         <v>415</v>
       </c>
@@ -5838,7 +5878,7 @@
       <c r="C103" t="s">
         <v>544</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F103" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G103" t="s">
@@ -5857,14 +5897,14 @@
         <v>633</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" ht="16">
       <c r="A104" t="s">
         <v>32</v>
       </c>
       <c r="B104" t="s">
         <v>446</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G104" t="s">
@@ -5883,14 +5923,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" ht="16">
       <c r="A105" t="s">
         <v>44</v>
       </c>
       <c r="B105" t="s">
         <v>449</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G105" t="s">
@@ -5906,7 +5946,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -5917,14 +5957,14 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" ht="16">
       <c r="A107" t="s">
         <v>31</v>
       </c>
       <c r="B107" t="s">
         <v>446</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G107" t="s">
@@ -5943,7 +5983,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" ht="16">
       <c r="A108" t="s">
         <v>881</v>
       </c>
@@ -5953,7 +5993,7 @@
       <c r="E108" t="s">
         <v>780</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G108" t="s">
@@ -5972,7 +6012,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" ht="16">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -5982,7 +6022,7 @@
       <c r="E109" t="s">
         <v>780</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F109" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G109" t="s">
@@ -6001,7 +6041,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -6009,7 +6049,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -6023,7 +6063,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>434</v>
       </c>
@@ -6031,14 +6071,14 @@
         <v>526</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" ht="16">
       <c r="A113" t="s">
         <v>882</v>
       </c>
       <c r="B113" t="s">
         <v>513</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G113" t="s">
@@ -6057,14 +6097,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" ht="16">
       <c r="A114" t="s">
         <v>883</v>
       </c>
       <c r="B114" t="s">
         <v>513</v>
       </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G114" t="s">
@@ -6083,14 +6123,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" ht="16">
       <c r="A115" t="s">
         <v>884</v>
       </c>
       <c r="B115" t="s">
         <v>513</v>
       </c>
-      <c r="F115" s="14" t="s">
+      <c r="F115" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G115" t="s">
@@ -6109,14 +6149,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" ht="16">
       <c r="A116" t="s">
         <v>885</v>
       </c>
       <c r="B116" t="s">
         <v>513</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G116" t="s">
@@ -6135,14 +6175,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" ht="16">
       <c r="A117" t="s">
         <v>401</v>
       </c>
       <c r="B117" t="s">
         <v>513</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="F117" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G117" t="s">
@@ -6161,14 +6201,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" ht="16">
       <c r="A118" t="s">
         <v>399</v>
       </c>
       <c r="B118" t="s">
         <v>513</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="F118" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G118" t="s">
@@ -6187,14 +6227,14 @@
         <v>714</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" ht="16">
       <c r="A119" t="s">
         <v>400</v>
       </c>
       <c r="B119" t="s">
         <v>513</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G119" t="s">
@@ -6213,7 +6253,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" ht="16">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -6223,7 +6263,7 @@
       <c r="E120" t="s">
         <v>765</v>
       </c>
-      <c r="F120" s="14" t="s">
+      <c r="F120" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G120" t="s">
@@ -6248,7 +6288,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -6262,7 +6302,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" ht="16">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -6272,7 +6312,7 @@
       <c r="E122" t="s">
         <v>760</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G122" t="s">
@@ -6288,7 +6328,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" ht="16">
       <c r="A123" t="s">
         <v>880</v>
       </c>
@@ -6298,7 +6338,7 @@
       <c r="E123" t="s">
         <v>761</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G123" t="s">
@@ -6317,7 +6357,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" ht="16">
       <c r="A124" t="s">
         <v>879</v>
       </c>
@@ -6327,7 +6367,7 @@
       <c r="E124" t="s">
         <v>761</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G124" t="s">
@@ -6346,7 +6386,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" ht="16">
       <c r="A125" t="s">
         <v>878</v>
       </c>
@@ -6356,7 +6396,7 @@
       <c r="E125" t="s">
         <v>762</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F125" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G125" t="s">
@@ -6375,7 +6415,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" ht="16">
       <c r="A126" t="s">
         <v>877</v>
       </c>
@@ -6385,7 +6425,7 @@
       <c r="E126" t="s">
         <v>761</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G126" t="s">
@@ -6404,7 +6444,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" ht="16">
       <c r="A127" t="s">
         <v>755</v>
       </c>
@@ -6414,7 +6454,7 @@
       <c r="E127" t="s">
         <v>761</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G127" t="s">
@@ -6433,7 +6473,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" ht="16">
       <c r="A128" t="s">
         <v>756</v>
       </c>
@@ -6443,7 +6483,7 @@
       <c r="E128" t="s">
         <v>762</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F128" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G128" t="s">
@@ -6462,7 +6502,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" ht="16">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -6472,7 +6512,7 @@
       <c r="E129" t="s">
         <v>763</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F129" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G129" t="s">
@@ -6488,7 +6528,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" ht="16">
       <c r="A130" t="s">
         <v>890</v>
       </c>
@@ -6498,7 +6538,7 @@
       <c r="E130" t="s">
         <v>764</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G130" t="s">
@@ -6514,7 +6554,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" ht="16">
       <c r="A131" t="s">
         <v>886</v>
       </c>
@@ -6524,7 +6564,7 @@
       <c r="E131" t="s">
         <v>764</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F131" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G131" t="s">
@@ -6540,7 +6580,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" ht="16">
       <c r="A132" t="s">
         <v>888</v>
       </c>
@@ -6550,7 +6590,7 @@
       <c r="E132" t="s">
         <v>764</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F132" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G132" t="s">
@@ -6566,7 +6606,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" ht="16">
       <c r="A133" t="s">
         <v>889</v>
       </c>
@@ -6576,7 +6616,7 @@
       <c r="E133" t="s">
         <v>764</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F133" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G133" t="s">
@@ -6592,7 +6632,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" ht="16">
       <c r="A134" t="s">
         <v>887</v>
       </c>
@@ -6602,7 +6642,7 @@
       <c r="E134" t="s">
         <v>764</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G134" t="s">
@@ -6618,7 +6658,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="16">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -6628,7 +6668,7 @@
       <c r="E135" t="s">
         <v>764</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G135" t="s">
@@ -6644,7 +6684,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21">
       <c r="A136" t="s">
         <v>230</v>
       </c>
@@ -6655,7 +6695,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -6669,7 +6709,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21">
       <c r="A138" t="s">
         <v>195</v>
       </c>
@@ -6683,7 +6723,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21">
       <c r="A139" t="s">
         <v>190</v>
       </c>
@@ -6700,14 +6740,14 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" ht="16">
       <c r="A140" t="s">
         <v>348</v>
       </c>
       <c r="B140" t="s">
         <v>499</v>
       </c>
-      <c r="F140" s="14" t="s">
+      <c r="F140" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G140" t="s">
@@ -6717,7 +6757,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -6734,14 +6774,14 @@
         <v>728</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" ht="16">
       <c r="A142" t="s">
         <v>186</v>
       </c>
       <c r="B142" t="s">
         <v>457</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F142" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G142" t="s">
@@ -6751,7 +6791,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="16">
       <c r="A143" t="s">
         <v>235</v>
       </c>
@@ -6761,7 +6801,7 @@
       <c r="E143" t="s">
         <v>766</v>
       </c>
-      <c r="F143" s="14" t="s">
+      <c r="F143" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G143" t="s">
@@ -6777,7 +6817,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21">
       <c r="A144" t="s">
         <v>359</v>
       </c>
@@ -6788,7 +6828,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>249</v>
       </c>
@@ -6799,7 +6839,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -6807,7 +6847,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>236</v>
       </c>
@@ -6815,7 +6855,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -6823,7 +6863,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>243</v>
       </c>
@@ -6831,7 +6871,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>366</v>
       </c>
@@ -6839,7 +6879,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>247</v>
       </c>
@@ -6847,7 +6887,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -6855,14 +6895,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="16">
       <c r="A153" t="s">
         <v>239</v>
       </c>
       <c r="B153" t="s">
         <v>443</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G153" t="s">
@@ -6881,7 +6921,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>397</v>
       </c>
@@ -6895,7 +6935,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -6909,7 +6949,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6917,7 +6957,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -6925,7 +6965,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>234</v>
       </c>
@@ -6933,7 +6973,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>300</v>
       </c>
@@ -6941,14 +6981,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="16">
       <c r="A160" t="s">
         <v>390</v>
       </c>
       <c r="B160" t="s">
         <v>507</v>
       </c>
-      <c r="F160" s="14" t="s">
+      <c r="F160" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G160" t="s">
@@ -6964,7 +7004,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>301</v>
       </c>
@@ -6975,7 +7015,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>251</v>
       </c>
@@ -6983,7 +7023,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -6997,14 +7037,14 @@
         <v>728</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="16">
       <c r="A164" t="s">
         <v>438</v>
       </c>
       <c r="B164" t="s">
         <v>518</v>
       </c>
-      <c r="F164" s="14" t="s">
+      <c r="F164" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G164" t="s">
@@ -7017,7 +7057,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="16">
       <c r="A165" t="s">
         <v>870</v>
       </c>
@@ -7027,7 +7067,7 @@
       <c r="E165" t="s">
         <v>854</v>
       </c>
-      <c r="F165" s="14" t="s">
+      <c r="F165" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G165" t="s">
@@ -7043,7 +7083,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="16">
       <c r="A166" t="s">
         <v>869</v>
       </c>
@@ -7053,7 +7093,7 @@
       <c r="E166" t="s">
         <v>854</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="F166" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G166" t="s">
@@ -7069,7 +7109,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="16">
       <c r="A167" t="s">
         <v>872</v>
       </c>
@@ -7079,7 +7119,7 @@
       <c r="E167" t="s">
         <v>854</v>
       </c>
-      <c r="F167" s="14" t="s">
+      <c r="F167" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G167" t="s">
@@ -7095,7 +7135,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="16">
       <c r="A168" t="s">
         <v>871</v>
       </c>
@@ -7105,7 +7145,7 @@
       <c r="E168" t="s">
         <v>854</v>
       </c>
-      <c r="F168" s="14" t="s">
+      <c r="F168" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G168" t="s">
@@ -7121,7 +7161,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="16">
       <c r="A169" t="s">
         <v>84</v>
       </c>
@@ -7131,7 +7171,7 @@
       <c r="E169" t="s">
         <v>854</v>
       </c>
-      <c r="F169" s="14" t="s">
+      <c r="F169" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G169" t="s">
@@ -7147,7 +7187,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="16">
       <c r="A170" t="s">
         <v>88</v>
       </c>
@@ -7157,7 +7197,7 @@
       <c r="E170" t="s">
         <v>854</v>
       </c>
-      <c r="F170" s="14" t="s">
+      <c r="F170" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G170" t="s">
@@ -7173,7 +7213,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="16">
       <c r="A171" t="s">
         <v>206</v>
       </c>
@@ -7183,7 +7223,7 @@
       <c r="E171" t="s">
         <v>600</v>
       </c>
-      <c r="F171" s="14" t="s">
+      <c r="F171" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G171" t="s">
@@ -7196,7 +7236,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="16">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -7206,7 +7246,7 @@
       <c r="D172" t="s">
         <v>568</v>
       </c>
-      <c r="F172" s="14" t="s">
+      <c r="F172" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G172" t="s">
@@ -7216,7 +7256,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>374</v>
       </c>
@@ -7227,7 +7267,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>149</v>
       </c>
@@ -7235,7 +7275,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>102</v>
       </c>
@@ -7243,7 +7283,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" ht="16">
       <c r="A176" t="s">
         <v>107</v>
       </c>
@@ -7253,7 +7293,7 @@
       <c r="D176" t="s">
         <v>531</v>
       </c>
-      <c r="F176" s="15" t="s">
+      <c r="F176" s="13" t="s">
         <v>727</v>
       </c>
       <c r="G176" t="s">
@@ -7266,7 +7306,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>233</v>
       </c>
@@ -7280,7 +7320,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>122</v>
       </c>
@@ -7291,7 +7331,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>223</v>
       </c>
@@ -7302,7 +7342,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>220</v>
       </c>
@@ -7313,7 +7353,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>221</v>
       </c>
@@ -7324,7 +7364,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>120</v>
       </c>
@@ -7338,7 +7378,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>270</v>
       </c>
@@ -7349,7 +7389,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>271</v>
       </c>
@@ -7360,7 +7400,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>121</v>
       </c>
@@ -7374,7 +7414,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>315</v>
       </c>
@@ -7382,7 +7422,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>274</v>
       </c>
@@ -7393,7 +7433,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>169</v>
       </c>
@@ -7404,7 +7444,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>238</v>
       </c>
@@ -7412,7 +7452,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>304</v>
       </c>
@@ -7420,7 +7460,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -7428,7 +7468,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>113</v>
       </c>
@@ -7436,7 +7476,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>111</v>
       </c>
@@ -7444,7 +7484,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>112</v>
       </c>
@@ -7452,7 +7492,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -7460,7 +7500,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>110</v>
       </c>
@@ -7468,7 +7508,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -7479,7 +7519,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>152</v>
       </c>
@@ -7490,14 +7530,14 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="16">
       <c r="A199" t="s">
         <v>188</v>
       </c>
       <c r="B199" t="s">
         <v>445</v>
       </c>
-      <c r="F199" s="14" t="s">
+      <c r="F199" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G199" t="s">
@@ -7510,7 +7550,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="16">
       <c r="A200" t="s">
         <v>116</v>
       </c>
@@ -7520,7 +7560,7 @@
       <c r="E200" t="s">
         <v>577</v>
       </c>
-      <c r="F200" s="14" t="s">
+      <c r="F200" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G200" t="s">
@@ -7530,7 +7570,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="16">
       <c r="A201" t="s">
         <v>117</v>
       </c>
@@ -7540,7 +7580,7 @@
       <c r="E201" t="s">
         <v>577</v>
       </c>
-      <c r="F201" s="14" t="s">
+      <c r="F201" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G201" t="s">
@@ -7550,14 +7590,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="16">
       <c r="A202" t="s">
         <v>437</v>
       </c>
       <c r="B202" t="s">
         <v>518</v>
       </c>
-      <c r="F202" s="14" t="s">
+      <c r="F202" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G202" t="s">
@@ -7573,7 +7613,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>93</v>
       </c>
@@ -7584,7 +7624,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>92</v>
       </c>
@@ -7598,7 +7638,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>91</v>
       </c>
@@ -7609,7 +7649,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>215</v>
       </c>
@@ -7620,7 +7660,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="16">
       <c r="A207" t="s">
         <v>436</v>
       </c>
@@ -7630,7 +7670,7 @@
       <c r="E207" t="s">
         <v>767</v>
       </c>
-      <c r="F207" s="14" t="s">
+      <c r="F207" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G207" t="s">
@@ -7646,14 +7686,14 @@
         <v>603</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="16">
       <c r="A208" t="s">
         <v>241</v>
       </c>
       <c r="B208" t="s">
         <v>443</v>
       </c>
-      <c r="F208" s="14" t="s">
+      <c r="F208" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G208" t="s">
@@ -7663,7 +7703,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="16">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -7673,7 +7713,7 @@
       <c r="E209" t="s">
         <v>675</v>
       </c>
-      <c r="F209" s="14" t="s">
+      <c r="F209" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G209" t="s">
@@ -7683,7 +7723,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="16">
       <c r="A210" t="s">
         <v>306</v>
       </c>
@@ -7693,7 +7733,7 @@
       <c r="E210" t="s">
         <v>768</v>
       </c>
-      <c r="F210" s="14" t="s">
+      <c r="F210" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G210" t="s">
@@ -7703,7 +7743,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="16">
       <c r="A211" t="s">
         <v>307</v>
       </c>
@@ -7713,7 +7753,7 @@
       <c r="E211" t="s">
         <v>637</v>
       </c>
-      <c r="F211" s="14" t="s">
+      <c r="F211" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G211" t="s">
@@ -7723,14 +7763,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="16">
       <c r="A212" t="s">
         <v>246</v>
       </c>
       <c r="B212" t="s">
         <v>443</v>
       </c>
-      <c r="F212" s="14" t="s">
+      <c r="F212" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G212" t="s">
@@ -7740,14 +7780,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="16">
       <c r="A213" t="s">
         <v>361</v>
       </c>
       <c r="B213" t="s">
         <v>550</v>
       </c>
-      <c r="F213" s="14" t="s">
+      <c r="F213" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G213" t="s">
@@ -7757,14 +7797,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="16">
       <c r="A214" t="s">
         <v>248</v>
       </c>
       <c r="B214" t="s">
         <v>443</v>
       </c>
-      <c r="F214" s="14" t="s">
+      <c r="F214" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G214" t="s">
@@ -7774,7 +7814,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>316</v>
       </c>
@@ -7782,7 +7822,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>424</v>
       </c>
@@ -7793,7 +7833,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="16">
       <c r="A217" t="s">
         <v>375</v>
       </c>
@@ -7803,24 +7843,69 @@
       <c r="D217" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F217" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G217" t="s">
+        <v>702</v>
+      </c>
+      <c r="H217" t="s">
+        <v>603</v>
+      </c>
+      <c r="I217" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="16">
       <c r="A218" t="s">
         <v>414</v>
       </c>
       <c r="B218" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F218" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G218" t="s">
+        <v>702</v>
+      </c>
+      <c r="H218" t="s">
+        <v>603</v>
+      </c>
+      <c r="I218" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="16">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E219" t="s">
+        <v>759</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G219" t="s">
+        <v>603</v>
+      </c>
+      <c r="H219" t="s">
+        <v>714</v>
+      </c>
+      <c r="I219" t="s">
+        <v>715</v>
+      </c>
+      <c r="J219" t="s">
+        <v>702</v>
+      </c>
+      <c r="K219" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>231</v>
       </c>
@@ -7828,23 +7913,47 @@
         <v>461</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="16">
       <c r="A221" t="s">
         <v>309</v>
       </c>
       <c r="B221" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F221" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G221" t="s">
+        <v>702</v>
+      </c>
+      <c r="H221" t="s">
+        <v>603</v>
+      </c>
+      <c r="I221" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="16">
       <c r="A222" t="s">
         <v>181</v>
       </c>
       <c r="B222" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="F222" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G222" t="s">
+        <v>702</v>
+      </c>
+      <c r="H222" t="s">
+        <v>603</v>
+      </c>
+      <c r="I222" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="16">
       <c r="A223" t="s">
         <v>394</v>
       </c>
@@ -7854,7 +7963,7 @@
       <c r="C223" t="s">
         <v>449</v>
       </c>
-      <c r="F223" s="14" t="s">
+      <c r="F223" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G223" t="s">
@@ -7864,7 +7973,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="16">
       <c r="A224" t="s">
         <v>431</v>
       </c>
@@ -7874,7 +7983,7 @@
       <c r="C224" t="s">
         <v>491</v>
       </c>
-      <c r="F224" s="14" t="s">
+      <c r="F224" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G224" t="s">
@@ -7884,7 +7993,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>193</v>
       </c>
@@ -7898,7 +8007,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="16">
       <c r="A226" t="s">
         <v>60</v>
       </c>
@@ -7908,28 +8017,28 @@
       <c r="E226" t="s">
         <v>859</v>
       </c>
-      <c r="F226" s="14" t="s">
+      <c r="F226" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G226" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="16">
       <c r="A227" t="s">
         <v>68</v>
       </c>
       <c r="B227" t="s">
         <v>457</v>
       </c>
-      <c r="F227" s="14" t="s">
+      <c r="F227" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G227" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>150</v>
       </c>
@@ -7937,7 +8046,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>308</v>
       </c>
@@ -7945,14 +8054,14 @@
         <v>439</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="16">
       <c r="A230" t="s">
         <v>406</v>
       </c>
       <c r="B230" t="s">
         <v>516</v>
       </c>
-      <c r="F230" s="14" t="s">
+      <c r="F230" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G230" t="s">
@@ -7962,7 +8071,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="16">
       <c r="A231" t="s">
         <v>275</v>
       </c>
@@ -7972,7 +8081,7 @@
       <c r="D231" t="s">
         <v>559</v>
       </c>
-      <c r="F231" s="14" t="s">
+      <c r="F231" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G231" t="s">
@@ -7982,7 +8091,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>428</v>
       </c>
@@ -7990,15 +8099,30 @@
         <v>570</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="16">
       <c r="A233" t="s">
         <v>211</v>
       </c>
       <c r="B233" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F233" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G233" t="s">
+        <v>702</v>
+      </c>
+      <c r="H233" t="s">
+        <v>603</v>
+      </c>
+      <c r="I233" t="s">
+        <v>714</v>
+      </c>
+      <c r="J233" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="16">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -8008,15 +8132,30 @@
       <c r="D234" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="F234" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G234" t="s">
+        <v>702</v>
+      </c>
+      <c r="H234" t="s">
+        <v>603</v>
+      </c>
+      <c r="I234" t="s">
+        <v>714</v>
+      </c>
+      <c r="J234" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="16">
       <c r="A235" t="s">
         <v>207</v>
       </c>
       <c r="B235" t="s">
         <v>444</v>
       </c>
-      <c r="F235" s="14" t="s">
+      <c r="F235" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G235" t="s">
@@ -8026,14 +8165,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="16">
       <c r="A236" t="s">
         <v>87</v>
       </c>
       <c r="B236" t="s">
         <v>462</v>
       </c>
-      <c r="F236" s="14" t="s">
+      <c r="F236" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G236" t="s">
@@ -8043,14 +8182,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="16">
       <c r="A237" t="s">
         <v>910</v>
       </c>
       <c r="B237" t="s">
         <v>445</v>
       </c>
-      <c r="F237" s="14" t="s">
+      <c r="F237" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G237" t="s">
@@ -8063,14 +8202,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="16">
       <c r="A238" t="s">
         <v>909</v>
       </c>
       <c r="B238" t="s">
         <v>445</v>
       </c>
-      <c r="F238" s="14" t="s">
+      <c r="F238" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G238" t="s">
@@ -8083,20 +8222,20 @@
         <v>828</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="16">
       <c r="A239" t="s">
         <v>911</v>
       </c>
-      <c r="F239" s="14"/>
-    </row>
-    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="F239" s="12"/>
+    </row>
+    <row r="240" spans="1:10" ht="16">
       <c r="A240" t="s">
         <v>85</v>
       </c>
       <c r="B240" t="s">
         <v>445</v>
       </c>
-      <c r="F240" s="14" t="s">
+      <c r="F240" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G240" t="s">
@@ -8109,7 +8248,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" ht="16">
       <c r="A241" t="s">
         <v>205</v>
       </c>
@@ -8119,7 +8258,7 @@
       <c r="D241" t="s">
         <v>540</v>
       </c>
-      <c r="F241" s="14" t="s">
+      <c r="F241" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G241" t="s">
@@ -8132,14 +8271,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" ht="16">
       <c r="A242" t="s">
         <v>86</v>
       </c>
       <c r="B242" t="s">
         <v>444</v>
       </c>
-      <c r="F242" s="14" t="s">
+      <c r="F242" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G242" t="s">
@@ -8152,14 +8291,14 @@
         <v>828</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" ht="16">
       <c r="A243" t="s">
         <v>119</v>
       </c>
       <c r="B243" t="s">
         <v>445</v>
       </c>
-      <c r="F243" s="14" t="s">
+      <c r="F243" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G243" t="s">
@@ -8169,7 +8308,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="16">
       <c r="A244" t="s">
         <v>873</v>
       </c>
@@ -8179,7 +8318,7 @@
       <c r="C244" t="s">
         <v>563</v>
       </c>
-      <c r="F244" s="14" t="s">
+      <c r="F244" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G244" t="s">
@@ -8195,7 +8334,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="16">
       <c r="A245" t="s">
         <v>876</v>
       </c>
@@ -8205,7 +8344,7 @@
       <c r="C245" t="s">
         <v>563</v>
       </c>
-      <c r="F245" s="14" t="s">
+      <c r="F245" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G245" t="s">
@@ -8221,7 +8360,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="16">
       <c r="A246" t="s">
         <v>875</v>
       </c>
@@ -8231,7 +8370,7 @@
       <c r="C246" t="s">
         <v>563</v>
       </c>
-      <c r="F246" s="14" t="s">
+      <c r="F246" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G246" t="s">
@@ -8247,7 +8386,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="16">
       <c r="A247" t="s">
         <v>98</v>
       </c>
@@ -8257,7 +8396,7 @@
       <c r="C247" t="s">
         <v>563</v>
       </c>
-      <c r="F247" s="14" t="s">
+      <c r="F247" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G247" t="s">
@@ -8273,7 +8412,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" ht="16">
       <c r="A248" t="s">
         <v>874</v>
       </c>
@@ -8283,7 +8422,7 @@
       <c r="C248" t="s">
         <v>563</v>
       </c>
-      <c r="F248" s="14" t="s">
+      <c r="F248" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G248" t="s">
@@ -8299,7 +8438,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" ht="16">
       <c r="A249" t="s">
         <v>101</v>
       </c>
@@ -8309,7 +8448,7 @@
       <c r="C249" t="s">
         <v>563</v>
       </c>
-      <c r="F249" s="14" t="s">
+      <c r="F249" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G249" t="s">
@@ -8325,7 +8464,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21">
       <c r="A250" t="s">
         <v>22</v>
       </c>
@@ -8339,7 +8478,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21">
       <c r="A251" t="s">
         <v>157</v>
       </c>
@@ -8347,7 +8486,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21">
       <c r="A252" t="s">
         <v>160</v>
       </c>
@@ -8355,15 +8494,24 @@
         <v>471</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" ht="16">
       <c r="A253" t="s">
         <v>263</v>
       </c>
       <c r="B253" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F253" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G253" t="s">
+        <v>838</v>
+      </c>
+      <c r="H253" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21">
       <c r="A254" t="s">
         <v>324</v>
       </c>
@@ -8371,7 +8519,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -8379,15 +8527,36 @@
         <v>445</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" ht="16">
       <c r="A256" t="s">
         <v>267</v>
       </c>
       <c r="B256" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F256" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G256" t="s">
+        <v>603</v>
+      </c>
+      <c r="H256" t="s">
+        <v>605</v>
+      </c>
+      <c r="I256" t="s">
+        <v>745</v>
+      </c>
+      <c r="J256" t="s">
+        <v>603</v>
+      </c>
+      <c r="K256" t="s">
+        <v>714</v>
+      </c>
+      <c r="L256" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>425</v>
       </c>
@@ -8395,7 +8564,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" ht="16">
       <c r="A258" t="s">
         <v>82</v>
       </c>
@@ -8405,40 +8574,112 @@
       <c r="D258" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F258" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G258" t="s">
+        <v>838</v>
+      </c>
+      <c r="H258" t="s">
+        <v>603</v>
+      </c>
+      <c r="I258" t="s">
+        <v>714</v>
+      </c>
+      <c r="J258" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="16">
       <c r="A259" t="s">
         <v>265</v>
       </c>
       <c r="B259" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F259" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G259" t="s">
+        <v>603</v>
+      </c>
+      <c r="H259" t="s">
+        <v>714</v>
+      </c>
+      <c r="I259" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="16">
       <c r="A260" t="s">
         <v>237</v>
       </c>
       <c r="B260" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F260" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G260" t="s">
+        <v>838</v>
+      </c>
+      <c r="H260" t="s">
+        <v>603</v>
+      </c>
+      <c r="I260" t="s">
+        <v>714</v>
+      </c>
+      <c r="J260" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="16">
       <c r="A261" t="s">
         <v>264</v>
       </c>
       <c r="B261" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F261" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G261" t="s">
+        <v>838</v>
+      </c>
+      <c r="H261" t="s">
+        <v>603</v>
+      </c>
+      <c r="I261" t="s">
+        <v>714</v>
+      </c>
+      <c r="J261" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="16">
       <c r="A262" t="s">
         <v>266</v>
       </c>
       <c r="B262" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F262" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G262" t="s">
+        <v>838</v>
+      </c>
+      <c r="H262" t="s">
+        <v>603</v>
+      </c>
+      <c r="I262" t="s">
+        <v>714</v>
+      </c>
+      <c r="J262" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="16">
       <c r="A263" t="s">
         <v>216</v>
       </c>
@@ -8448,16 +8689,46 @@
       <c r="C263" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F263" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G263" t="s">
+        <v>838</v>
+      </c>
+      <c r="H263" t="s">
+        <v>603</v>
+      </c>
+      <c r="I263" t="s">
+        <v>714</v>
+      </c>
+      <c r="J263" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="16">
       <c r="A264" t="s">
         <v>131</v>
       </c>
       <c r="B264" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F264" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G264" t="s">
+        <v>838</v>
+      </c>
+      <c r="H264" t="s">
+        <v>603</v>
+      </c>
+      <c r="I264" t="s">
+        <v>714</v>
+      </c>
+      <c r="J264" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="16">
       <c r="A265" t="s">
         <v>165</v>
       </c>
@@ -8470,8 +8741,20 @@
       <c r="E265" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F265" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G265" t="s">
+        <v>828</v>
+      </c>
+      <c r="H265" t="s">
+        <v>714</v>
+      </c>
+      <c r="I265" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="16">
       <c r="A266" t="s">
         <v>283</v>
       </c>
@@ -8481,8 +8764,23 @@
       <c r="C266" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F266" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G266" t="s">
+        <v>838</v>
+      </c>
+      <c r="H266" t="s">
+        <v>603</v>
+      </c>
+      <c r="I266" t="s">
+        <v>714</v>
+      </c>
+      <c r="J266" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="16">
       <c r="A267" t="s">
         <v>277</v>
       </c>
@@ -8492,7 +8790,7 @@
       <c r="D267" t="s">
         <v>557</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G267" t="s">
@@ -8508,37 +8806,55 @@
         <v>603</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="16">
       <c r="A268" t="s">
         <v>262</v>
       </c>
       <c r="B268" t="s">
         <v>441</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G268" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" ht="16">
       <c r="A269" t="s">
         <v>404</v>
       </c>
       <c r="B269" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F269" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G269" t="s">
+        <v>702</v>
+      </c>
+      <c r="H269" t="s">
+        <v>828</v>
+      </c>
+      <c r="I269" t="s">
+        <v>714</v>
+      </c>
+      <c r="J269" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>259</v>
       </c>
       <c r="B270" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F270" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>323</v>
       </c>
@@ -8546,7 +8862,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>162</v>
       </c>
@@ -8554,7 +8870,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>245</v>
       </c>
@@ -8562,7 +8878,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>314</v>
       </c>
@@ -8570,7 +8886,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>421</v>
       </c>
@@ -8581,7 +8897,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>349</v>
       </c>
@@ -8589,7 +8905,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>105</v>
       </c>
@@ -8615,7 +8931,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>430</v>
       </c>
@@ -8626,7 +8942,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>370</v>
       </c>
@@ -8634,7 +8950,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>272</v>
       </c>
@@ -8645,7 +8961,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>168</v>
       </c>
@@ -8656,7 +8972,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>139</v>
       </c>
@@ -8664,7 +8980,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>106</v>
       </c>
@@ -8675,7 +8991,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>255</v>
       </c>
@@ -8683,7 +8999,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>196</v>
       </c>
@@ -8694,7 +9010,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>159</v>
       </c>
@@ -8702,7 +9018,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>126</v>
       </c>
@@ -8710,7 +9026,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>240</v>
       </c>
@@ -8718,7 +9034,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21">
       <c r="A289" t="s">
         <v>138</v>
       </c>
@@ -8726,7 +9042,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21">
       <c r="A290" t="s">
         <v>217</v>
       </c>
@@ -8734,7 +9050,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21">
       <c r="A291" t="s">
         <v>103</v>
       </c>
@@ -8745,7 +9061,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" ht="16">
       <c r="A292" t="s">
         <v>194</v>
       </c>
@@ -8755,16 +9071,52 @@
       <c r="C292" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E292" t="s">
+        <v>912</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G292" t="s">
+        <v>603</v>
+      </c>
+      <c r="H292" t="s">
+        <v>702</v>
+      </c>
+      <c r="I292" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" ht="16">
       <c r="A293" t="s">
         <v>254</v>
       </c>
       <c r="B293" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E293" t="s">
+        <v>913</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G293" t="s">
+        <v>603</v>
+      </c>
+      <c r="H293" t="s">
+        <v>714</v>
+      </c>
+      <c r="I293" t="s">
+        <v>715</v>
+      </c>
+      <c r="J293" t="s">
+        <v>702</v>
+      </c>
+      <c r="K293" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" ht="16">
       <c r="A294" t="s">
         <v>156</v>
       </c>
@@ -8774,16 +9126,46 @@
       <c r="C294" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F294" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G294" t="s">
+        <v>838</v>
+      </c>
+      <c r="H294" t="s">
+        <v>603</v>
+      </c>
+      <c r="I294" t="s">
+        <v>714</v>
+      </c>
+      <c r="J294" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" ht="16">
       <c r="A295" t="s">
         <v>115</v>
       </c>
       <c r="B295" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F295" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G295" t="s">
+        <v>838</v>
+      </c>
+      <c r="H295" t="s">
+        <v>603</v>
+      </c>
+      <c r="I295" t="s">
+        <v>714</v>
+      </c>
+      <c r="J295" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" ht="16">
       <c r="A296" t="s">
         <v>114</v>
       </c>
@@ -8793,7 +9175,7 @@
       <c r="E296" t="s">
         <v>867</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G296" t="s">
@@ -8809,19 +9191,36 @@
         <v>603</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" ht="16">
       <c r="A297" t="s">
         <v>109</v>
       </c>
       <c r="B297" t="s">
         <v>465</v>
       </c>
-      <c r="F297" s="5"/>
+      <c r="F297" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G297" t="s">
+        <v>838</v>
+      </c>
+      <c r="H297" t="s">
+        <v>603</v>
+      </c>
+      <c r="I297" t="s">
+        <v>715</v>
+      </c>
+      <c r="J297" t="s">
+        <v>702</v>
+      </c>
+      <c r="K297" t="s">
+        <v>603</v>
+      </c>
       <c r="U297" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" ht="16">
       <c r="A298" t="s">
         <v>183</v>
       </c>
@@ -8834,8 +9233,29 @@
       <c r="E298" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F298" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G298" t="s">
+        <v>603</v>
+      </c>
+      <c r="H298" t="s">
+        <v>828</v>
+      </c>
+      <c r="I298" t="s">
+        <v>714</v>
+      </c>
+      <c r="J298" t="s">
+        <v>715</v>
+      </c>
+      <c r="K298" t="s">
+        <v>702</v>
+      </c>
+      <c r="L298" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" ht="16">
       <c r="A299" t="s">
         <v>184</v>
       </c>
@@ -8848,8 +9268,32 @@
       <c r="E299" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F299" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G299" t="s">
+        <v>603</v>
+      </c>
+      <c r="H299" t="s">
+        <v>828</v>
+      </c>
+      <c r="I299" t="s">
+        <v>603</v>
+      </c>
+      <c r="J299" t="s">
+        <v>714</v>
+      </c>
+      <c r="K299" t="s">
+        <v>715</v>
+      </c>
+      <c r="L299" t="s">
+        <v>702</v>
+      </c>
+      <c r="M299" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" ht="16">
       <c r="A300" t="s">
         <v>391</v>
       </c>
@@ -8859,7 +9303,7 @@
       <c r="E300" t="s">
         <v>634</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G300" t="s">
@@ -8875,7 +9319,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" ht="16">
       <c r="A301" t="s">
         <v>273</v>
       </c>
@@ -8888,35 +9332,50 @@
       <c r="E301" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F301" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G301" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21">
       <c r="A302" t="s">
         <v>175</v>
       </c>
       <c r="B302" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F302" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21">
       <c r="A303" t="s">
         <v>197</v>
       </c>
       <c r="B303" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F303" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21">
       <c r="A304" t="s">
         <v>176</v>
       </c>
       <c r="B304" t="s">
         <v>481</v>
       </c>
+      <c r="F304" t="s">
+        <v>752</v>
+      </c>
       <c r="U304" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21">
       <c r="A305" t="s">
         <v>170</v>
       </c>
@@ -8929,11 +9388,14 @@
       <c r="D305" t="s">
         <v>531</v>
       </c>
+      <c r="F305" t="s">
+        <v>752</v>
+      </c>
       <c r="U305" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -8943,25 +9405,39 @@
       <c r="D306" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F306" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21">
       <c r="A307" t="s">
         <v>70</v>
       </c>
       <c r="B307" t="s">
         <v>454</v>
       </c>
-      <c r="F307" s="6"/>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F307" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" ht="16">
       <c r="A308" t="s">
         <v>202</v>
       </c>
       <c r="B308" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F308" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G308" t="s">
+        <v>838</v>
+      </c>
+      <c r="H308" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" ht="16">
       <c r="A309" t="s">
         <v>376</v>
       </c>
@@ -8971,8 +9447,26 @@
       <c r="D309" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E309" t="s">
+        <v>634</v>
+      </c>
+      <c r="F309" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G309" t="s">
+        <v>838</v>
+      </c>
+      <c r="H309" t="s">
+        <v>603</v>
+      </c>
+      <c r="I309" t="s">
+        <v>838</v>
+      </c>
+      <c r="J309" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21">
       <c r="A310" t="s">
         <v>244</v>
       </c>
@@ -8980,7 +9474,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -8991,7 +9485,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21">
       <c r="A312" t="s">
         <v>71</v>
       </c>
@@ -9005,7 +9499,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21">
       <c r="A313" t="s">
         <v>57</v>
       </c>
@@ -9019,34 +9513,67 @@
         <v>635</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21">
       <c r="A314" t="s">
         <v>305</v>
       </c>
       <c r="B314" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F314" t="s">
+        <v>727</v>
+      </c>
+      <c r="G314" t="s">
+        <v>838</v>
+      </c>
+      <c r="H314" t="s">
+        <v>603</v>
+      </c>
+      <c r="I314" t="s">
+        <v>844</v>
+      </c>
+      <c r="J314" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21">
       <c r="A315" t="s">
         <v>72</v>
       </c>
       <c r="B315" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F315" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" ht="16">
       <c r="A316" t="s">
         <v>426</v>
       </c>
       <c r="B316" t="s">
         <v>524</v>
       </c>
+      <c r="F316" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G316" t="s">
+        <v>838</v>
+      </c>
+      <c r="H316" t="s">
+        <v>603</v>
+      </c>
+      <c r="I316" t="s">
+        <v>828</v>
+      </c>
+      <c r="J316" t="s">
+        <v>603</v>
+      </c>
       <c r="U316" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -9054,7 +9581,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21">
       <c r="A318" t="s">
         <v>155</v>
       </c>
@@ -9064,11 +9591,14 @@
       <c r="C318" t="s">
         <v>534</v>
       </c>
+      <c r="F318" t="s">
+        <v>731</v>
+      </c>
       <c r="U318" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" ht="16">
       <c r="A319" t="s">
         <v>229</v>
       </c>
@@ -9078,32 +9608,92 @@
       <c r="D319" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F319" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G319" t="s">
+        <v>838</v>
+      </c>
+      <c r="H319" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" ht="16">
       <c r="A320" t="s">
         <v>302</v>
       </c>
       <c r="B320" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E320" t="s">
+        <v>914</v>
+      </c>
+      <c r="F320" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G320" t="s">
+        <v>603</v>
+      </c>
+      <c r="H320" t="s">
+        <v>715</v>
+      </c>
+      <c r="I320" t="s">
+        <v>838</v>
+      </c>
+      <c r="J320" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" ht="16">
       <c r="A321" t="s">
         <v>129</v>
       </c>
       <c r="B321" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F321" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G321" t="s">
+        <v>838</v>
+      </c>
+      <c r="H321" t="s">
+        <v>603</v>
+      </c>
+      <c r="I321" t="s">
+        <v>715</v>
+      </c>
+      <c r="J321" t="s">
+        <v>838</v>
+      </c>
+      <c r="K321" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" ht="16">
       <c r="A322" t="s">
         <v>330</v>
       </c>
       <c r="B322" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F322" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G322" t="s">
+        <v>603</v>
+      </c>
+      <c r="H322" t="s">
+        <v>714</v>
+      </c>
+      <c r="I322" t="s">
+        <v>715</v>
+      </c>
+      <c r="J322" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21">
       <c r="A323" t="s">
         <v>95</v>
       </c>
@@ -9114,7 +9704,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" ht="16">
       <c r="A324" t="s">
         <v>373</v>
       </c>
@@ -9124,8 +9714,32 @@
       <c r="E324" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F324" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G324" t="s">
+        <v>603</v>
+      </c>
+      <c r="H324" t="s">
+        <v>605</v>
+      </c>
+      <c r="I324" t="s">
+        <v>745</v>
+      </c>
+      <c r="J324" t="s">
+        <v>603</v>
+      </c>
+      <c r="K324" t="s">
+        <v>714</v>
+      </c>
+      <c r="L324" t="s">
+        <v>715</v>
+      </c>
+      <c r="M324" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" ht="16">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -9138,24 +9752,78 @@
       <c r="E325" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F325" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G325" t="s">
+        <v>838</v>
+      </c>
+      <c r="H325" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" ht="16">
       <c r="A326" t="s">
         <v>371</v>
       </c>
       <c r="B326" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F326" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G326" t="s">
+        <v>603</v>
+      </c>
+      <c r="H326" t="s">
+        <v>605</v>
+      </c>
+      <c r="I326" t="s">
+        <v>745</v>
+      </c>
+      <c r="J326" t="s">
+        <v>603</v>
+      </c>
+      <c r="K326" t="s">
+        <v>714</v>
+      </c>
+      <c r="L326" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" ht="16">
       <c r="A327" t="s">
         <v>372</v>
       </c>
       <c r="B327" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F327" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G327" t="s">
+        <v>838</v>
+      </c>
+      <c r="H327" t="s">
+        <v>603</v>
+      </c>
+      <c r="I327" t="s">
+        <v>605</v>
+      </c>
+      <c r="J327" t="s">
+        <v>745</v>
+      </c>
+      <c r="K327" t="s">
+        <v>603</v>
+      </c>
+      <c r="L327" t="s">
+        <v>714</v>
+      </c>
+      <c r="M327" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -9163,7 +9831,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21">
       <c r="A329" t="s">
         <v>167</v>
       </c>
@@ -9174,7 +9842,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21">
       <c r="A330" t="s">
         <v>192</v>
       </c>
@@ -9185,7 +9853,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21">
       <c r="A331" t="s">
         <v>199</v>
       </c>
@@ -9193,7 +9861,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21">
       <c r="A332" t="s">
         <v>198</v>
       </c>
@@ -9201,7 +9869,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21">
       <c r="A333" t="s">
         <v>164</v>
       </c>
@@ -9212,7 +9880,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21">
       <c r="A334" t="s">
         <v>250</v>
       </c>
@@ -9220,7 +9888,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21">
       <c r="A335" t="s">
         <v>427</v>
       </c>
@@ -9231,7 +9899,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21">
       <c r="A336" t="s">
         <v>147</v>
       </c>
@@ -9242,7 +9910,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21">
       <c r="A337" t="s">
         <v>253</v>
       </c>
@@ -9250,7 +9918,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21">
       <c r="A338" t="s">
         <v>252</v>
       </c>
@@ -9261,7 +9929,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21">
       <c r="A339" t="s">
         <v>269</v>
       </c>
@@ -9272,7 +9940,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21">
       <c r="A340" t="s">
         <v>185</v>
       </c>
@@ -9283,7 +9951,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" ht="16">
       <c r="A341" t="s">
         <v>335</v>
       </c>
@@ -9293,7 +9961,7 @@
       <c r="E341" t="s">
         <v>732</v>
       </c>
-      <c r="F341" s="14" t="s">
+      <c r="F341" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G341" t="s">
@@ -9309,7 +9977,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="342" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" ht="16">
       <c r="A342" t="s">
         <v>336</v>
       </c>
@@ -9319,7 +9987,7 @@
       <c r="E342" t="s">
         <v>733</v>
       </c>
-      <c r="F342" s="14" t="s">
+      <c r="F342" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G342" t="s">
@@ -9335,7 +10003,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" ht="16">
       <c r="A343" t="s">
         <v>334</v>
       </c>
@@ -9345,7 +10013,7 @@
       <c r="E343" t="s">
         <v>734</v>
       </c>
-      <c r="F343" s="14" t="s">
+      <c r="F343" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G343" t="s">
@@ -9361,7 +10029,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" ht="16">
       <c r="A344" t="s">
         <v>333</v>
       </c>
@@ -9371,7 +10039,7 @@
       <c r="E344" t="s">
         <v>735</v>
       </c>
-      <c r="F344" s="14" t="s">
+      <c r="F344" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G344" t="s">
@@ -9387,7 +10055,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -9398,7 +10066,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21">
       <c r="A346" t="s">
         <v>410</v>
       </c>
@@ -9409,7 +10077,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21">
       <c r="A347" t="s">
         <v>411</v>
       </c>
@@ -9420,7 +10088,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21">
       <c r="A348" t="s">
         <v>24</v>
       </c>
@@ -9431,7 +10099,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21">
       <c r="A349" t="s">
         <v>177</v>
       </c>
@@ -9442,7 +10110,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="350" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" ht="16">
       <c r="A350" t="s">
         <v>64</v>
       </c>
@@ -9452,14 +10120,14 @@
       <c r="E350" t="s">
         <v>576</v>
       </c>
-      <c r="F350" s="14" t="s">
+      <c r="F350" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G350" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21">
       <c r="A351" t="s">
         <v>182</v>
       </c>
@@ -9473,7 +10141,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -9484,7 +10152,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" ht="16">
       <c r="A353" t="s">
         <v>46</v>
       </c>
@@ -9494,7 +10162,7 @@
       <c r="E353" t="s">
         <v>610</v>
       </c>
-      <c r="F353" s="14" t="s">
+      <c r="F353" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G353" t="s">
@@ -9507,7 +10175,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="16">
       <c r="A354" t="s">
         <v>389</v>
       </c>
@@ -9520,7 +10188,7 @@
       <c r="E354" t="s">
         <v>610</v>
       </c>
-      <c r="F354" s="14" t="s">
+      <c r="F354" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G354" t="s">
@@ -9533,7 +10201,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21">
       <c r="A355" t="s">
         <v>422</v>
       </c>
@@ -9544,14 +10212,14 @@
         <v>545</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" ht="16">
       <c r="A356" t="s">
         <v>75</v>
       </c>
       <c r="B356" t="s">
         <v>442</v>
       </c>
-      <c r="F356" s="14" t="s">
+      <c r="F356" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G356" t="s">
@@ -9567,7 +10235,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" ht="16">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -9577,7 +10245,7 @@
       <c r="C357" t="s">
         <v>563</v>
       </c>
-      <c r="F357" s="14" t="s">
+      <c r="F357" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G357" t="s">
@@ -9587,7 +10255,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21">
       <c r="A358" t="s">
         <v>163</v>
       </c>
@@ -9601,7 +10269,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21">
       <c r="A359" t="s">
         <v>153</v>
       </c>
@@ -9615,7 +10283,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21">
       <c r="A360" t="s">
         <v>282</v>
       </c>
@@ -9626,7 +10294,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21">
       <c r="A361" t="s">
         <v>124</v>
       </c>
@@ -9634,7 +10302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21">
       <c r="A362" t="s">
         <v>178</v>
       </c>
@@ -9645,7 +10313,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21">
       <c r="A363" t="s">
         <v>405</v>
       </c>
@@ -9653,7 +10321,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21">
       <c r="A364" t="s">
         <v>280</v>
       </c>
@@ -9661,7 +10329,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21">
       <c r="A365" t="s">
         <v>224</v>
       </c>
@@ -9669,7 +10337,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21">
       <c r="A366" t="s">
         <v>123</v>
       </c>
@@ -9677,7 +10345,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21">
       <c r="A367" t="s">
         <v>278</v>
       </c>
@@ -9685,7 +10353,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -9693,7 +10361,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21">
       <c r="A369" t="s">
         <v>279</v>
       </c>
@@ -9701,7 +10369,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21">
       <c r="A370" t="s">
         <v>125</v>
       </c>
@@ -9709,7 +10377,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" ht="16">
       <c r="A371" t="s">
         <v>61</v>
       </c>
@@ -9719,7 +10387,7 @@
       <c r="E371" t="s">
         <v>601</v>
       </c>
-      <c r="F371" s="14" t="s">
+      <c r="F371" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G371" t="s">
@@ -9732,7 +10400,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21">
       <c r="A372" t="s">
         <v>429</v>
       </c>
@@ -9740,7 +10408,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" ht="16">
       <c r="A373" t="s">
         <v>53</v>
       </c>
@@ -9750,7 +10418,7 @@
       <c r="E373" t="s">
         <v>600</v>
       </c>
-      <c r="F373" s="14" t="s">
+      <c r="F373" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G373" t="s">
@@ -9766,14 +10434,14 @@
         <v>599</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" ht="16">
       <c r="A374" t="s">
         <v>7</v>
       </c>
       <c r="B374" t="s">
         <v>440</v>
       </c>
-      <c r="F374" s="14" t="s">
+      <c r="F374" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G374" t="s">
@@ -9786,7 +10454,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21">
       <c r="A375" t="s">
         <v>55</v>
       </c>
@@ -9794,7 +10462,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" ht="16">
       <c r="A376" t="s">
         <v>97</v>
       </c>
@@ -9807,7 +10475,7 @@
       <c r="E376" t="s">
         <v>598</v>
       </c>
-      <c r="F376" s="14" t="s">
+      <c r="F376" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G376" t="s">
@@ -9820,7 +10488,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" ht="16">
       <c r="A377" t="s">
         <v>54</v>
       </c>
@@ -9830,7 +10498,7 @@
       <c r="E377" t="s">
         <v>597</v>
       </c>
-      <c r="F377" s="14" t="s">
+      <c r="F377" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G377" t="s">
@@ -9852,7 +10520,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21">
       <c r="A378" t="s">
         <v>433</v>
       </c>
@@ -9866,14 +10534,14 @@
         <v>728</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" ht="16">
       <c r="A379" t="s">
         <v>140</v>
       </c>
       <c r="B379" t="s">
         <v>445</v>
       </c>
-      <c r="F379" s="14" t="s">
+      <c r="F379" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G379" t="s">
@@ -9916,7 +10584,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21">
       <c r="A380" t="s">
         <v>23</v>
       </c>
@@ -9930,7 +10598,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21">
       <c r="A381" t="s">
         <v>15</v>
       </c>
@@ -9938,7 +10606,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" ht="16">
       <c r="A382" t="s">
         <v>38</v>
       </c>
@@ -9948,7 +10616,7 @@
       <c r="E382" t="s">
         <v>596</v>
       </c>
-      <c r="F382" s="14" t="s">
+      <c r="F382" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G382" t="s">
@@ -9961,7 +10629,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" ht="16">
       <c r="A383" t="s">
         <v>63</v>
       </c>
@@ -9971,7 +10639,7 @@
       <c r="E383" t="s">
         <v>595</v>
       </c>
-      <c r="F383" s="14" t="s">
+      <c r="F383" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G383" t="s">
@@ -9984,7 +10652,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21">
       <c r="A384" t="s">
         <v>268</v>
       </c>
@@ -9998,7 +10666,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
         <v>360</v>
       </c>
@@ -10009,7 +10677,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" ht="16">
       <c r="A386" t="s">
         <v>30</v>
       </c>
@@ -10019,7 +10687,7 @@
       <c r="E386" t="s">
         <v>591</v>
       </c>
-      <c r="F386" s="14" t="s">
+      <c r="F386" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G386" t="s">
@@ -10032,7 +10700,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9">
       <c r="A387" t="s">
         <v>94</v>
       </c>
@@ -10043,7 +10711,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" ht="16">
       <c r="A388" t="s">
         <v>10</v>
       </c>
@@ -10053,7 +10721,7 @@
       <c r="E388" t="s">
         <v>593</v>
       </c>
-      <c r="F388" s="14" t="s">
+      <c r="F388" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G388" t="s">
@@ -10066,7 +10734,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
         <v>419</v>
       </c>
@@ -10077,7 +10745,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9">
       <c r="A390" t="s">
         <v>228</v>
       </c>
@@ -10088,7 +10756,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
         <v>382</v>
       </c>
@@ -10099,7 +10767,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
         <v>379</v>
       </c>
@@ -10110,7 +10778,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9">
       <c r="A393" t="s">
         <v>208</v>
       </c>
@@ -10118,7 +10786,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
         <v>52</v>
       </c>
@@ -10126,7 +10794,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
         <v>171</v>
       </c>
@@ -10134,7 +10802,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9">
       <c r="A396" t="s">
         <v>49</v>
       </c>
@@ -10142,7 +10810,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
         <v>59</v>
       </c>
@@ -10150,7 +10818,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
         <v>69</v>
       </c>
@@ -10158,7 +10826,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9">
       <c r="A399" t="s">
         <v>58</v>
       </c>
@@ -10166,7 +10834,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
         <v>80</v>
       </c>
@@ -10174,7 +10842,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>420</v>
       </c>
@@ -10185,7 +10853,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>51</v>
       </c>
@@ -10193,7 +10861,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>354</v>
       </c>
@@ -10201,7 +10869,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>179</v>
       </c>
@@ -10212,7 +10880,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>276</v>
       </c>
@@ -10223,7 +10891,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>83</v>
       </c>
@@ -10231,7 +10899,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>11</v>
       </c>
@@ -10242,7 +10910,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -10253,7 +10921,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>25</v>
       </c>
@@ -10264,7 +10932,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>362</v>
       </c>
@@ -10272,7 +10940,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>392</v>
       </c>
@@ -10280,7 +10948,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>28</v>
       </c>
@@ -10288,7 +10956,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>145</v>
       </c>
@@ -10296,7 +10964,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>256</v>
       </c>
@@ -10304,7 +10972,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>19</v>
       </c>
@@ -10312,7 +10980,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>146</v>
       </c>
@@ -10320,7 +10988,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -10328,7 +10996,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>369</v>
       </c>
@@ -10336,7 +11004,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>353</v>
       </c>
@@ -10344,7 +11012,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>41</v>
       </c>
@@ -10352,7 +11020,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5">
       <c r="A421" t="s">
         <v>42</v>
       </c>
@@ -10360,7 +11028,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>403</v>
       </c>
@@ -10368,7 +11036,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>338</v>
       </c>
@@ -10376,7 +11044,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5">
       <c r="A424" t="s">
         <v>408</v>
       </c>
@@ -10384,7 +11052,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5">
       <c r="A425" t="s">
         <v>350</v>
       </c>
@@ -10392,7 +11060,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>332</v>
       </c>
@@ -10400,7 +11068,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>331</v>
       </c>
@@ -10408,7 +11076,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5">
       <c r="A428" t="s">
         <v>48</v>
       </c>
@@ -10416,7 +11084,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5">
       <c r="A429" t="s">
         <v>143</v>
       </c>
@@ -10427,7 +11095,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>257</v>
       </c>
@@ -10438,7 +11106,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>321</v>
       </c>
@@ -10449,7 +11117,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>50</v>
       </c>
@@ -10460,7 +11128,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21">
       <c r="A433" t="s">
         <v>40</v>
       </c>
@@ -10474,16 +11142,16 @@
         <v>673</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21">
       <c r="A434" t="s">
         <v>347</v>
       </c>
       <c r="B434" t="s">
         <v>499</v>
       </c>
-      <c r="F434" s="7"/>
-    </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F434" s="5"/>
+    </row>
+    <row r="435" spans="1:21">
       <c r="A435" t="s">
         <v>298</v>
       </c>
@@ -10491,7 +11159,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21">
       <c r="A436" t="s">
         <v>65</v>
       </c>
@@ -10502,7 +11170,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" ht="16">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -10512,7 +11180,7 @@
       <c r="E437" t="s">
         <v>593</v>
       </c>
-      <c r="F437" s="14" t="s">
+      <c r="F437" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G437" t="s">
@@ -10534,7 +11202,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" ht="16">
       <c r="A438" t="s">
         <v>1</v>
       </c>
@@ -10544,7 +11212,7 @@
       <c r="E438" t="s">
         <v>759</v>
       </c>
-      <c r="F438" s="14" t="s">
+      <c r="F438" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G438" t="s">
@@ -10554,7 +11222,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="439" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" ht="16">
       <c r="A439" t="s">
         <v>866</v>
       </c>
@@ -10564,7 +11232,7 @@
       <c r="E439" t="s">
         <v>600</v>
       </c>
-      <c r="F439" s="14" t="s">
+      <c r="F439" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G439" t="s">
@@ -10583,7 +11251,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="440" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" ht="16">
       <c r="A440" t="s">
         <v>865</v>
       </c>
@@ -10593,10 +11261,10 @@
       <c r="E440" t="s">
         <v>600</v>
       </c>
-      <c r="F440" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="G440" s="9" t="s">
+      <c r="F440" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G440" s="7" t="s">
         <v>603</v>
       </c>
       <c r="H440" t="s">
@@ -10618,7 +11286,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21">
       <c r="A441" t="s">
         <v>47</v>
       </c>
@@ -10629,7 +11297,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" ht="16">
       <c r="A442" t="s">
         <v>2</v>
       </c>
@@ -10639,14 +11307,14 @@
       <c r="E442" t="s">
         <v>666</v>
       </c>
-      <c r="F442" s="14" t="s">
+      <c r="F442" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G442" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" ht="16">
       <c r="A443" t="s">
         <v>66</v>
       </c>
@@ -10656,7 +11324,7 @@
       <c r="E443" t="s">
         <v>577</v>
       </c>
-      <c r="F443" s="14" t="s">
+      <c r="F443" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G443" t="s">
@@ -10669,7 +11337,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" ht="16">
       <c r="A444" t="s">
         <v>395</v>
       </c>
@@ -10679,7 +11347,7 @@
       <c r="E444" t="s">
         <v>682</v>
       </c>
-      <c r="F444" s="14" t="s">
+      <c r="F444" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G444" t="s">
@@ -10698,7 +11366,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21">
       <c r="A445" t="s">
         <v>17</v>
       </c>
@@ -10706,7 +11374,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21">
       <c r="A446" t="s">
         <v>18</v>
       </c>
@@ -10714,7 +11382,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21">
       <c r="A447" t="s">
         <v>14</v>
       </c>
@@ -10722,7 +11390,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21">
       <c r="A448" t="s">
         <v>16</v>
       </c>
@@ -10730,7 +11398,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9">
       <c r="A449" t="s">
         <v>368</v>
       </c>
@@ -10738,7 +11406,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9">
       <c r="A450" t="s">
         <v>367</v>
       </c>
@@ -10746,7 +11414,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9">
       <c r="A451" t="s">
         <v>104</v>
       </c>
@@ -10754,7 +11422,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" ht="16">
       <c r="A452" t="s">
         <v>39</v>
       </c>
@@ -10764,7 +11432,7 @@
       <c r="E452" t="s">
         <v>636</v>
       </c>
-      <c r="F452" s="14" t="s">
+      <c r="F452" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G452" t="s">
@@ -10777,7 +11445,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
         <v>364</v>
       </c>
@@ -10785,7 +11453,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9">
       <c r="A454" t="s">
         <v>89</v>
       </c>
@@ -10793,7 +11461,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9">
       <c r="A455" t="s">
         <v>127</v>
       </c>
@@ -10801,7 +11469,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9">
       <c r="A456" t="s">
         <v>133</v>
       </c>
@@ -10809,7 +11477,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9">
       <c r="A457" t="s">
         <v>77</v>
       </c>
@@ -10817,7 +11485,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>393</v>
       </c>
@@ -10825,7 +11493,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9">
       <c r="A459" t="s">
         <v>384</v>
       </c>
@@ -10833,7 +11501,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9">
       <c r="A460" t="s">
         <v>383</v>
       </c>
@@ -10841,7 +11509,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
         <v>385</v>
       </c>
@@ -10849,7 +11517,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9">
       <c r="A462" t="s">
         <v>386</v>
       </c>
@@ -10857,7 +11525,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9">
       <c r="A463" t="s">
         <v>210</v>
       </c>
@@ -10868,7 +11536,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
         <v>67</v>
       </c>
@@ -10876,7 +11544,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="465" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:22">
       <c r="A465" t="s">
         <v>432</v>
       </c>
@@ -10887,7 +11555,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="466" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:22" ht="16">
       <c r="A466" t="s">
         <v>897</v>
       </c>
@@ -10897,7 +11565,7 @@
       <c r="E466" t="s">
         <v>686</v>
       </c>
-      <c r="F466" s="14" t="s">
+      <c r="F466" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G466" t="s">
@@ -10919,7 +11587,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="467" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:22" ht="16">
       <c r="A467" t="s">
         <v>896</v>
       </c>
@@ -10929,7 +11597,7 @@
       <c r="E467" t="s">
         <v>686</v>
       </c>
-      <c r="F467" s="14" t="s">
+      <c r="F467" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G467" t="s">
@@ -10951,7 +11619,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="468" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:22" ht="16">
       <c r="A468" t="s">
         <v>895</v>
       </c>
@@ -10961,7 +11629,7 @@
       <c r="E468" t="s">
         <v>686</v>
       </c>
-      <c r="F468" s="14" t="s">
+      <c r="F468" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G468" t="s">
@@ -10983,7 +11651,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="469" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:22" ht="16">
       <c r="A469" t="s">
         <v>21</v>
       </c>
@@ -10993,7 +11661,7 @@
       <c r="E469" t="s">
         <v>686</v>
       </c>
-      <c r="F469" s="14" t="s">
+      <c r="F469" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G469" t="s">
@@ -11015,7 +11683,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="470" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:22" ht="16">
       <c r="A470" t="s">
         <v>8</v>
       </c>
@@ -11025,14 +11693,14 @@
       <c r="E470" t="s">
         <v>665</v>
       </c>
-      <c r="F470" s="14" t="s">
+      <c r="F470" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G470" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="471" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:22">
       <c r="A471" t="s">
         <v>12</v>
       </c>
@@ -11043,7 +11711,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="472" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:22">
       <c r="A472" t="s">
         <v>74</v>
       </c>
@@ -11051,7 +11719,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:22">
       <c r="A473" t="s">
         <v>209</v>
       </c>
@@ -11062,7 +11730,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="474" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:22">
       <c r="A474" t="s">
         <v>356</v>
       </c>
@@ -11073,7 +11741,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:22">
       <c r="A475" t="s">
         <v>355</v>
       </c>
@@ -11084,7 +11752,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="476" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:22">
       <c r="A476" t="s">
         <v>358</v>
       </c>
@@ -11098,7 +11766,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="477" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:22" ht="16">
       <c r="A477" t="s">
         <v>357</v>
       </c>
@@ -11108,7 +11776,7 @@
       <c r="E477" t="s">
         <v>739</v>
       </c>
-      <c r="F477" s="14" t="s">
+      <c r="F477" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G477" t="s">
@@ -11124,7 +11792,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="478" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:22" ht="16">
       <c r="A478" t="s">
         <v>76</v>
       </c>
@@ -11134,14 +11802,14 @@
       <c r="E478" t="s">
         <v>698</v>
       </c>
-      <c r="F478" s="14" t="s">
+      <c r="F478" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G478" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="479" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:22">
       <c r="A479" t="s">
         <v>227</v>
       </c>
@@ -11152,7 +11820,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="480" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:22" ht="16">
       <c r="A480" t="s">
         <v>894</v>
       </c>
@@ -11162,7 +11830,7 @@
       <c r="E480" t="s">
         <v>676</v>
       </c>
-      <c r="F480" s="14" t="s">
+      <c r="F480" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G480" t="s">
@@ -11175,7 +11843,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" ht="16">
       <c r="A481" t="s">
         <v>893</v>
       </c>
@@ -11185,7 +11853,7 @@
       <c r="E481" t="s">
         <v>676</v>
       </c>
-      <c r="F481" s="14" t="s">
+      <c r="F481" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G481" t="s">
@@ -11198,7 +11866,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" ht="16">
       <c r="A482" t="s">
         <v>892</v>
       </c>
@@ -11208,7 +11876,7 @@
       <c r="E482" t="s">
         <v>676</v>
       </c>
-      <c r="F482" s="14" t="s">
+      <c r="F482" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G482" t="s">
@@ -11221,7 +11889,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" ht="16">
       <c r="A483" t="s">
         <v>891</v>
       </c>
@@ -11231,7 +11899,7 @@
       <c r="E483" t="s">
         <v>676</v>
       </c>
-      <c r="F483" s="14" t="s">
+      <c r="F483" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G483" t="s">
@@ -11244,7 +11912,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" ht="16">
       <c r="A484" t="s">
         <v>341</v>
       </c>
@@ -11254,7 +11922,7 @@
       <c r="E484" t="s">
         <v>676</v>
       </c>
-      <c r="F484" s="14" t="s">
+      <c r="F484" s="12" t="s">
         <v>727</v>
       </c>
       <c r="G484" t="s">
@@ -11267,7 +11935,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9">
       <c r="A485" t="s">
         <v>339</v>
       </c>
@@ -11275,7 +11943,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9">
       <c r="A486" t="s">
         <v>413</v>
       </c>
@@ -11283,7 +11951,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9">
       <c r="A487" t="s">
         <v>412</v>
       </c>
@@ -11304,7 +11972,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>I292 I90:J91 I70 I72:K77 G62 G63:K69 J79:K79 J17 G17:H17 G23:H23 G477:J477 G35:I36 K123:K128 N90 G71:I71 J78:L78 G78:I79 G18:J22 G24:J34 K23:L23 K2:K22 L90 I447:T447 H448:T461 I291:T291 G485:T487 G478:T479 G123:J129 L477:T477 K71:T71 G462:T476 G37:J59 P90:T90 H200:H201 G2:J16 J292:M438 G188:G199 N292:T446 H293:I438 G441:G461 H440:M446 G439:K439 H167:H198 I167:K202 H105:K111 K112 G113:K122 G130:K131 H132:K166 G132:G186 G480:I484 L480:T484 L2:T70 K24:K61 I80:K89 L72:T89 I92:K104 G86:G111 H81:H103 H203:K290 G202:G438 L91:T290</xm:sqref>
+          <xm:sqref>I260:I290 I90:J91 I70 I72:K77 G62 G63:K69 J79:K79 J17 G17:H17 G477:J477 G35:I36 K123:K128 N90 G71:I71 J78:L78 G78:I79 G18:J22 K308:M309 K23:L24 K2:K22 L90 I447:T447 H448:T461 I291:T291 G485:T487 G478:T479 G123:J129 L477:T477 K71:T71 G462:T476 G37:J59 P90:T90 H200:H201 G2:J16 G188:G199 N292:T446 G441:G461 H440:M446 G439:K439 H167:H198 I167:K202 H105:K111 K112 G113:K122 G130:K131 H132:K166 G132:G186 G480:I484 L480:T484 K25:K61 I80:K89 L72:T89 I92:K104 G86:G111 H81:H103 L91:T290 I258:K258 J259:K290 I292 H259:H290 H293:I298 H299 J292:M299 G328:M438 L2:T70 J309 H300:M307 H310:M327 H308:I309 G23:H34 I25:J34 H203:K257 G202:G327</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{416CE930-7D64-FB4E-A7C8-DA6371C18CD3}">
           <x14:formula1>
@@ -11326,7 +11994,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
@@ -11336,7 +12004,7 @@
     <col min="7" max="7" width="57.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="C1" t="s">
         <v>701</v>
       </c>
@@ -11349,15 +12017,15 @@
       <c r="F1" t="s">
         <v>775</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>724</v>
       </c>
       <c r="H1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>700</v>
       </c>
       <c r="E2" t="s">
@@ -11366,15 +12034,15 @@
       <c r="F2" t="s">
         <v>776</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>725</v>
       </c>
       <c r="H2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="48">
+      <c r="A3" s="10" t="s">
         <v>702</v>
       </c>
       <c r="B3" s="2"/>
@@ -11392,8 +12060,8 @@
         <v>742</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="10" t="s">
         <v>806</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -11406,57 +12074,57 @@
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
         <v>703</v>
       </c>
       <c r="F5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="10" t="s">
         <v>705</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
         <v>707</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="10" t="s">
         <v>708</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C10" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="10" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:8" ht="16">
+      <c r="A13" s="10" t="s">
         <v>710</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -11466,164 +12134,164 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="10" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="10" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>685</v>
       </c>
       <c r="D24" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>609</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" s="4"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" s="4"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57" s="4"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59" s="4"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2">
       <c r="B84" s="4"/>
     </row>
   </sheetData>
@@ -11644,13 +12312,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="146" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="133.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>643</v>
       </c>
@@ -11658,7 +12326,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>860</v>
       </c>
@@ -11666,7 +12334,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>646</v>
       </c>
@@ -11674,82 +12342,82 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>651</v>
       </c>
@@ -11757,7 +12425,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>653</v>
       </c>
@@ -11765,7 +12433,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>655</v>
       </c>
@@ -11773,7 +12441,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>658</v>
       </c>
@@ -11791,14 +12459,14 @@
   <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="139" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -11828,7 +12496,7 @@
     <col min="37" max="37" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40">
       <c r="D1" t="s">
         <v>807</v>
       </c>
@@ -11941,23 +12609,23 @@
         <v>837</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:40">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>786</v>
       </c>
       <c r="D3">
@@ -11973,35 +12641,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:40">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:40" ht="48">
+      <c r="A5" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>788</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:40">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>789</v>
       </c>
       <c r="I6">
@@ -12011,30 +12679,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:40">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:40">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:40">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>792</v>
       </c>
       <c r="N9">
@@ -12044,78 +12712,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:40">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>793</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:40">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:40">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:40">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:40">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:40">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="1:40">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="1:40">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V17">
@@ -12131,24 +12799,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:40">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>800</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:40">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>801</v>
       </c>
       <c r="K19">
@@ -12161,12 +12829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:40">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>802</v>
       </c>
       <c r="Q20">
@@ -12182,22 +12850,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:40">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:40">
+      <c r="B22" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:40">
+      <c r="B23" s="9" t="s">
         <v>607</v>
       </c>
       <c r="Z23">
@@ -12213,8 +12881,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:40">
+      <c r="B24" s="9" t="s">
         <v>685</v>
       </c>
       <c r="AD24">
@@ -12227,8 +12895,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:40">
+      <c r="B25" s="9" t="s">
         <v>828</v>
       </c>
       <c r="AG25">
@@ -12247,8 +12915,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:40">
+      <c r="B26" s="9" t="s">
         <v>608</v>
       </c>
       <c r="AL26">
@@ -12261,18 +12929,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:40">
+      <c r="B27" s="9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:40">
+      <c r="B28" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:40">
+      <c r="B29" s="9" t="s">
         <v>719</v>
       </c>
     </row>

--- a/textToOps/data/raw/DataCorpus_classfied_중분류.xlsx
+++ b/textToOps/data/raw/DataCorpus_classfied_중분류.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4532CC94-C26D-7F4F-B6DB-AD70A0C1BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7A99B-BD89-6B43-83A8-DBC0DF2E2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="915">
   <si>
     <t>Question</t>
   </si>
@@ -3657,9 +3657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="108" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J270" sqref="J270"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="118" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7459,6 +7459,24 @@
       <c r="B190" t="s">
         <v>443</v>
       </c>
+      <c r="F190" t="s">
+        <v>727</v>
+      </c>
+      <c r="G190" t="s">
+        <v>603</v>
+      </c>
+      <c r="H190" t="s">
+        <v>714</v>
+      </c>
+      <c r="I190" t="s">
+        <v>715</v>
+      </c>
+      <c r="J190" t="s">
+        <v>702</v>
+      </c>
+      <c r="K190" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="191" spans="1:20">
       <c r="A191" t="s">
@@ -7467,6 +7485,24 @@
       <c r="B191" t="s">
         <v>443</v>
       </c>
+      <c r="F191" t="s">
+        <v>727</v>
+      </c>
+      <c r="G191" t="s">
+        <v>603</v>
+      </c>
+      <c r="H191" t="s">
+        <v>714</v>
+      </c>
+      <c r="I191" t="s">
+        <v>715</v>
+      </c>
+      <c r="J191" t="s">
+        <v>702</v>
+      </c>
+      <c r="K191" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="192" spans="1:20">
       <c r="A192" t="s">
@@ -7475,24 +7511,87 @@
       <c r="B192" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="F192" t="s">
+        <v>727</v>
+      </c>
+      <c r="G192" t="s">
+        <v>702</v>
+      </c>
+      <c r="H192" t="s">
+        <v>603</v>
+      </c>
+      <c r="I192" t="s">
+        <v>714</v>
+      </c>
+      <c r="J192" t="s">
+        <v>715</v>
+      </c>
+      <c r="K192" t="s">
+        <v>702</v>
+      </c>
+      <c r="L192" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>111</v>
       </c>
       <c r="B193" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="F193" t="s">
+        <v>727</v>
+      </c>
+      <c r="G193" t="s">
+        <v>702</v>
+      </c>
+      <c r="H193" t="s">
+        <v>603</v>
+      </c>
+      <c r="I193" t="s">
+        <v>714</v>
+      </c>
+      <c r="J193" t="s">
+        <v>715</v>
+      </c>
+      <c r="K193" t="s">
+        <v>702</v>
+      </c>
+      <c r="L193" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>112</v>
       </c>
       <c r="B194" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="F194" t="s">
+        <v>727</v>
+      </c>
+      <c r="G194" t="s">
+        <v>702</v>
+      </c>
+      <c r="H194" t="s">
+        <v>603</v>
+      </c>
+      <c r="I194" t="s">
+        <v>714</v>
+      </c>
+      <c r="J194" t="s">
+        <v>715</v>
+      </c>
+      <c r="K194" t="s">
+        <v>702</v>
+      </c>
+      <c r="L194" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -7500,7 +7599,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>110</v>
       </c>
@@ -7508,7 +7607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -7519,7 +7618,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>152</v>
       </c>
@@ -7530,7 +7629,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16">
+    <row r="199" spans="1:12" ht="16">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -7550,7 +7649,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="16">
+    <row r="200" spans="1:12" ht="16">
       <c r="A200" t="s">
         <v>116</v>
       </c>
@@ -7570,7 +7669,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16">
+    <row r="201" spans="1:12" ht="16">
       <c r="A201" t="s">
         <v>117</v>
       </c>
@@ -7590,7 +7689,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16">
+    <row r="202" spans="1:12" ht="16">
       <c r="A202" t="s">
         <v>437</v>
       </c>
@@ -7613,7 +7712,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>93</v>
       </c>
@@ -7624,7 +7723,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>92</v>
       </c>
@@ -7638,7 +7737,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>91</v>
       </c>
@@ -7649,7 +7748,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>215</v>
       </c>
@@ -7660,7 +7759,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="16">
+    <row r="207" spans="1:12" ht="16">
       <c r="A207" t="s">
         <v>436</v>
       </c>
@@ -7686,7 +7785,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16">
+    <row r="208" spans="1:12" ht="16">
       <c r="A208" t="s">
         <v>241</v>
       </c>
@@ -7814,12 +7913,24 @@
         <v>828</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" ht="16">
       <c r="A215" t="s">
         <v>316</v>
       </c>
       <c r="B215" t="s">
         <v>493</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G215" t="s">
+        <v>603</v>
+      </c>
+      <c r="H215" t="s">
+        <v>605</v>
+      </c>
+      <c r="I215" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -8870,7 +8981,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>245</v>
       </c>
@@ -8878,7 +8989,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>314</v>
       </c>
@@ -8886,7 +8997,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>421</v>
       </c>
@@ -8897,7 +9008,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>349</v>
       </c>
@@ -8905,7 +9016,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>105</v>
       </c>
@@ -8931,7 +9042,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>430</v>
       </c>
@@ -8942,7 +9053,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>370</v>
       </c>
@@ -8950,7 +9061,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>272</v>
       </c>
@@ -8961,7 +9072,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>168</v>
       </c>
@@ -8972,7 +9083,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>139</v>
       </c>
@@ -8980,7 +9091,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>106</v>
       </c>
@@ -8991,7 +9102,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>255</v>
       </c>
@@ -8999,7 +9110,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>196</v>
       </c>
@@ -9010,7 +9121,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>159</v>
       </c>
@@ -9018,15 +9129,36 @@
         <v>471</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:12" ht="16">
       <c r="A287" t="s">
         <v>126</v>
       </c>
       <c r="B287" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="F287" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G287" t="s">
+        <v>603</v>
+      </c>
+      <c r="H287" t="s">
+        <v>736</v>
+      </c>
+      <c r="I287" t="s">
+        <v>714</v>
+      </c>
+      <c r="J287" t="s">
+        <v>603</v>
+      </c>
+      <c r="K287" t="s">
+        <v>715</v>
+      </c>
+      <c r="L287" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>240</v>
       </c>
@@ -9034,23 +9166,59 @@
         <v>443</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" ht="16">
       <c r="A289" t="s">
         <v>138</v>
       </c>
       <c r="B289" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="290" spans="1:21">
+      <c r="F289" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G289" t="s">
+        <v>838</v>
+      </c>
+      <c r="H289" t="s">
+        <v>603</v>
+      </c>
+      <c r="I289" t="s">
+        <v>604</v>
+      </c>
+      <c r="J289" t="s">
+        <v>714</v>
+      </c>
+      <c r="K289" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" ht="16">
       <c r="A290" t="s">
         <v>217</v>
       </c>
       <c r="B290" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="291" spans="1:21">
+      <c r="F290" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G290" t="s">
+        <v>838</v>
+      </c>
+      <c r="H290" t="s">
+        <v>603</v>
+      </c>
+      <c r="I290" t="s">
+        <v>714</v>
+      </c>
+      <c r="J290" t="s">
+        <v>702</v>
+      </c>
+      <c r="K290" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" ht="16">
       <c r="A291" t="s">
         <v>103</v>
       </c>
@@ -9059,6 +9227,24 @@
       </c>
       <c r="C291" t="s">
         <v>563</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G291" t="s">
+        <v>838</v>
+      </c>
+      <c r="H291" t="s">
+        <v>603</v>
+      </c>
+      <c r="I291" t="s">
+        <v>714</v>
+      </c>
+      <c r="J291" t="s">
+        <v>702</v>
+      </c>
+      <c r="K291" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="292" spans="1:21" ht="16">
@@ -9466,15 +9652,30 @@
         <v>603</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" ht="16">
       <c r="A310" t="s">
         <v>244</v>
       </c>
       <c r="B310" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="311" spans="1:21">
+      <c r="F310" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G310" t="s">
+        <v>603</v>
+      </c>
+      <c r="H310" t="s">
+        <v>714</v>
+      </c>
+      <c r="I310" t="s">
+        <v>828</v>
+      </c>
+      <c r="J310" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" ht="16">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -9484,8 +9685,20 @@
       <c r="E311" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="312" spans="1:21">
+      <c r="F311" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G311" t="s">
+        <v>603</v>
+      </c>
+      <c r="H311" t="s">
+        <v>605</v>
+      </c>
+      <c r="I311" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" ht="16">
       <c r="A312" t="s">
         <v>71</v>
       </c>
@@ -9495,11 +9708,26 @@
       <c r="E312" t="s">
         <v>661</v>
       </c>
+      <c r="F312" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G312" t="s">
+        <v>603</v>
+      </c>
+      <c r="H312" t="s">
+        <v>715</v>
+      </c>
+      <c r="I312" t="s">
+        <v>605</v>
+      </c>
+      <c r="J312" t="s">
+        <v>603</v>
+      </c>
       <c r="U312" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" ht="16">
       <c r="A313" t="s">
         <v>57</v>
       </c>
@@ -9508,6 +9736,21 @@
       </c>
       <c r="E313" t="s">
         <v>661</v>
+      </c>
+      <c r="F313" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G313" t="s">
+        <v>603</v>
+      </c>
+      <c r="H313" t="s">
+        <v>715</v>
+      </c>
+      <c r="I313" t="s">
+        <v>605</v>
+      </c>
+      <c r="J313" t="s">
+        <v>603</v>
       </c>
       <c r="U313" t="s">
         <v>635</v>
@@ -11972,7 +12215,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>I260:I290 I90:J91 I70 I72:K77 G62 G63:K69 J79:K79 J17 G17:H17 G477:J477 G35:I36 K123:K128 N90 G71:I71 J78:L78 G78:I79 G18:J22 K308:M309 K23:L24 K2:K22 L90 I447:T447 H448:T461 I291:T291 G485:T487 G478:T479 G123:J129 L477:T477 K71:T71 G462:T476 G37:J59 P90:T90 H200:H201 G2:J16 G188:G199 N292:T446 G441:G461 H440:M446 G439:K439 H167:H198 I167:K202 H105:K111 K112 G113:K122 G130:K131 H132:K166 G132:G186 G480:I484 L480:T484 K25:K61 I80:K89 L72:T89 I92:K104 G86:G111 H81:H103 L91:T290 I258:K258 J259:K290 I292 H259:H290 H293:I298 H299 J292:M299 G328:M438 L2:T70 J309 H300:M307 H310:M327 H308:I309 G23:H34 I25:J34 H203:K257 G202:G327</xm:sqref>
+          <xm:sqref>H259:H288 I90:J91 I70 I72:K77 G62 G63:K69 J79:K79 J17 G17:H17 G477:J477 G35:I36 K123:K128 N90 G71:I71 J78:L78 G78:I79 G18:J22 K308:M309 K23:L24 K2:K22 I447:T447 H448:T461 I291:T291 G485:T487 G478:T479 G123:J129 L477:T477 K71:T71 G462:T476 G37:J59 P90:T90 H200:H201 G2:J16 N292:T446 G441:G461 H440:M446 G439:K439 H203:K257 H105:K111 K112 G113:K122 G130:K131 G132:G186 G480:I484 L480:T484 K25:K61 I80:K89 L72:T89 I92:K104 G86:G111 H81:H103 I258:K258 G202:G327 I292 H293:I298 H299 J292:M299 G328:M438 L2:T70 J309 H300:M307 H308:I309 G23:H34 I25:J34 L195:L290 H132:K190 M91:T290 L90:L191 I191:K191 I192:L194 I195:K202 G188:G199 H191:H198 H310:M327 I290:K290 I260:I289 J259:K289</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{416CE930-7D64-FB4E-A7C8-DA6371C18CD3}">
           <x14:formula1>
@@ -12459,7 +12702,7 @@
   <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="139" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
